--- a/output/StructureDefinition-cd-age-of-person.xlsx
+++ b/output/StructureDefinition-cd-age-of-person.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cd-age-of-person</t>
+    <t>http://fhir.org/de/StructureDefinition/cd-age-of-person</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/c-chronological-age</t>
+    <t>http://fhir.org/de/StructureDefinition/c-chronological-age</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1373,7 +1373,7 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-sentinel-conceptual-domain</t>
+    <t>http://fhir.org/de/ValueSet/vs-sentinel-conceptual-domain</t>
   </si>
   <si>
     <t>ele-1
@@ -2236,7 +2236,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.84765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cd-age-of-person.xlsx
+++ b/output/StructureDefinition-cd-age-of-person.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cd-age-of-person</t>
+    <t>http://hl7.org/de/StructureDefinition/cd-age-of-person</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/c-chronological-age</t>
+    <t>http://hl7.org/de/StructureDefinition/c-chronological-age</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1373,7 +1373,7 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>http://fhir.org/de/ValueSet/vs-sentinel-conceptual-domain</t>
+    <t>http://hl7.org/de/ValueSet/vs-sentinel-conceptual-domain</t>
   </si>
   <si>
     <t>ele-1
@@ -2236,7 +2236,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
